--- a/Numbers-2023/external/DiskSummary-2022-11-21.xlsx
+++ b/Numbers-2023/external/DiskSummary-2022-11-21.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schellma/Dropbox/DUNE-computing/CCB-data/Numbers-2023/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0C5A6BBF-2B20-2E48-90BD-ABBE4A99B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5129511A-51F7-B945-B1FB-E5DAFF0884D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D56DA2D-8C17-F74F-89D7-694722CF1127}"/>
+    <workbookView xWindow="2680" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{3D56DA2D-8C17-F74F-89D7-694722CF1127}"/>
   </bookViews>
   <sheets>
     <sheet name="DiskSummary-2022-11-21" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +50,6 @@
     <t>percent full</t>
   </si>
   <si>
-    <t>Non Rucio Alloc (PB)</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>FNAL</t>
+  </si>
+  <si>
+    <t>Non Rucio (PB)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -180,10 +180,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,15 +525,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>4</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>1.1299999999999999</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>0.71899999999999997</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>0.5</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>0.1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6">
         <v>0.9</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6">
         <v>1.01</v>
@@ -690,12 +690,12 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6">
         <v>0.5</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6">
         <v>3.8279999999999998</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6">
         <v>0.54900000000000004</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <v>1.08</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6">
         <v>1.1000000000000001</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6">
         <v>9.9000000000000005E-2</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6">
         <v>7.0289999999999999</v>
@@ -874,12 +874,12 @@
       <c r="D19" s="4"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <f>SUM(B2:B18)</f>
@@ -904,7 +904,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9">
         <f>SUM(B4:B11)+B17+ F2</f>
@@ -929,7 +929,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="9">
         <f>B3</f>
@@ -954,7 +954,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <f>B18</f>
